--- a/complete_2020_df.xlsx
+++ b/complete_2020_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
   <si>
     <t>State</t>
   </si>
@@ -250,13 +250,13 @@
     <t>Wyoming</t>
   </si>
   <si>
-    <t>Four Corners</t>
-  </si>
-  <si>
-    <t>West Coast</t>
-  </si>
-  <si>
-    <t>Northeast</t>
+    <t>Non-Coastal</t>
+  </si>
+  <si>
+    <t>Pacific</t>
+  </si>
+  <si>
+    <t>Atlantic</t>
   </si>
 </sst>
 </file>
@@ -2256,6 +2256,9 @@
       <c r="AA22">
         <v>0</v>
       </c>
+      <c r="AB22" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="23" spans="1:28">
       <c r="A23" s="1">
@@ -2410,6 +2413,9 @@
       <c r="AA24">
         <v>0</v>
       </c>
+      <c r="AB24" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="25" spans="1:28">
       <c r="A25" s="1">
@@ -2493,6 +2499,9 @@
       <c r="AA25">
         <v>0</v>
       </c>
+      <c r="AB25" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="26" spans="1:28">
       <c r="A26" s="1">
@@ -2641,6 +2650,9 @@
       <c r="AA27">
         <v>0</v>
       </c>
+      <c r="AB27" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="28" spans="1:28">
       <c r="A28" s="1">
@@ -3604,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="AB40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -4157,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="AB48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:28">
@@ -4457,6 +4469,9 @@
       </c>
       <c r="AA52">
         <v>0</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:28">
